--- a/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik september 2024.xlsx
+++ b/out/Frisksnit/Glostrup Hospital (GLO), Centralkøkken - Økologi statistik september 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -445,7 +445,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -457,25 +457,22 @@
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,17% containsTotalMass,17% containsSingleMass,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,</t>
-  </si>
-  <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
+  </si>
+  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, </t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -579,12 +576,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
+        <fgColor rgb="FF5F94AD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5F94AD"/>
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,7 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
@@ -679,23 +675,24 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
@@ -2385,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A023F6D0-A334-44A2-99D8-D6C1F5BE4927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46498F3D-7898-4F24-B732-E98A9157A880}">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
@@ -2729,7 +2726,7 @@
       <c r="G15" s="25">
         <v>1937.25</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="35" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2764,7 +2761,7 @@
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="23">
@@ -2788,7 +2785,7 @@
       <c r="B18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="23">
@@ -2812,7 +2809,7 @@
       <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="23">
@@ -2836,7 +2833,7 @@
       <c r="B20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="23">
@@ -2974,7 +2971,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -3001,19 +2998,19 @@
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>3070</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <f>SUM(F7:F26)</f>
         <v>372</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="34">
         <f>SUM(G7:G26)</f>
         <v>19533.07</v>
       </c>
@@ -3221,7 +3218,7 @@
       <c r="B37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="23">
@@ -3245,7 +3242,7 @@
       <c r="B38" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="23">
@@ -3533,7 +3530,7 @@
       <c r="B50" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="35" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="23">
@@ -3557,7 +3554,7 @@
       <c r="B51" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="35" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="23">
@@ -3698,19 +3695,19 @@
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="31">
         <v>3070</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="34">
+      <c r="F57" s="33">
         <f>SUM(F30:F56)</f>
         <v>578</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="34">
         <f>SUM(G30:G56)</f>
         <v>24644.51</v>
       </c>
@@ -3742,11 +3739,11 @@
       <c r="E59" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="33">
         <f>+F27+F57</f>
         <v>950</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="34">
         <f>+G27+G57</f>
         <v>44177.58</v>
       </c>
@@ -3781,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF480CE3-0793-496D-8C45-521082CFB963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F394EA-4184-4696-99D5-4F2B00FBDC86}">
   <dimension ref="A2:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
@@ -3856,10 +3853,10 @@
       <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -3873,16 +3870,16 @@
       <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="44">
         <v>8</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="46">
         <f>+D7*E7</f>
         <v>8</v>
       </c>
@@ -3897,16 +3894,16 @@
       <c r="B8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="E8" s="42">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46">
         <f ref="F8:F26" t="shared" si="0">+D8*E8</f>
         <v>1</v>
       </c>
@@ -3921,16 +3918,16 @@
       <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
-      <c r="E9" s="42">
-        <v>2</v>
-      </c>
-      <c r="F9" s="43">
+      <c r="E9" s="44">
+        <v>2</v>
+      </c>
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3945,16 +3942,16 @@
       <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="44">
         <v>17</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3969,16 +3966,16 @@
       <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="0">
         <v>5</v>
       </c>
-      <c r="E11" s="42">
-        <v>5</v>
-      </c>
-      <c r="F11" s="43">
+      <c r="E11" s="44">
+        <v>5</v>
+      </c>
+      <c r="F11" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -3993,16 +3990,16 @@
       <c r="B12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="44">
         <v>6</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4017,16 +4014,16 @@
       <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="0">
         <v>3</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="44">
         <v>7</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="46">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -4041,16 +4038,16 @@
       <c r="B14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="0">
         <v>5</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="44">
         <v>4</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4065,16 +4062,16 @@
       <c r="B15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="44">
         <v>41</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="46">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4089,16 +4086,16 @@
       <c r="B16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
       </c>
-      <c r="E16" s="42">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4110,19 +4107,19 @@
       <c r="A17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="44">
+        <v>2</v>
+      </c>
+      <c r="F17" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4134,19 +4131,19 @@
       <c r="A18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="44">
         <v>7</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4158,19 +4155,19 @@
       <c r="A19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="0">
         <v>3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="44">
         <v>14</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="46">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4182,19 +4179,19 @@
       <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="0">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="44">
+        <v>5</v>
+      </c>
+      <c r="F20" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4206,19 +4203,19 @@
       <c r="A21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="41" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="0">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="44">
         <v>32</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="46">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -4230,19 +4227,19 @@
       <c r="A22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="41" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="0">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="44">
         <v>12</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4254,19 +4251,19 @@
       <c r="A23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="41" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="44">
         <v>24</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="46">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4278,19 +4275,19 @@
       <c r="A24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="44">
         <v>80</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="46">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -4302,19 +4299,19 @@
       <c r="A25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="41" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="44">
+        <v>2</v>
+      </c>
+      <c r="F25" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4326,19 +4323,19 @@
       <c r="A26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="44">
+        <v>2</v>
+      </c>
+      <c r="F26" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4350,15 +4347,15 @@
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="40">
         <v>3070</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4">
+      <c r="E27" s="45"/>
+      <c r="F27" s="47">
         <f>SUM(F7:F26)</f>
         <v>372</v>
       </c>
@@ -4380,15 +4377,15 @@
         <v>142</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="43" t="s">
         <v>145</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -4402,16 +4399,16 @@
       <c r="B30" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="41" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="0">
         <v>1</v>
       </c>
-      <c r="E30" s="42">
-        <v>2</v>
-      </c>
-      <c r="F30" s="43">
+      <c r="E30" s="44">
+        <v>2</v>
+      </c>
+      <c r="F30" s="46">
         <f ref="F30:F56" t="shared" si="1">+D30*E30</f>
         <v>2</v>
       </c>
@@ -4426,16 +4423,16 @@
       <c r="B31" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="41" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="0">
         <v>1</v>
       </c>
-      <c r="E31" s="42">
-        <v>5</v>
-      </c>
-      <c r="F31" s="43">
+      <c r="E31" s="44">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4450,16 +4447,16 @@
       <c r="B32" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="0">
         <v>5</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="44">
         <v>6</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="46">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4474,16 +4471,16 @@
       <c r="B33" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="0">
         <v>1</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="44">
         <v>4</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4498,16 +4495,16 @@
       <c r="B34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="0">
         <v>5</v>
       </c>
-      <c r="E34" s="42">
-        <v>2</v>
-      </c>
-      <c r="F34" s="43">
+      <c r="E34" s="44">
+        <v>2</v>
+      </c>
+      <c r="F34" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4522,16 +4519,16 @@
       <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="0">
         <v>1</v>
       </c>
-      <c r="E35" s="42">
-        <v>1</v>
-      </c>
-      <c r="F35" s="43">
+      <c r="E35" s="44">
+        <v>1</v>
+      </c>
+      <c r="F35" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4546,16 +4543,16 @@
       <c r="B36" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="41" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="0">
         <v>5</v>
       </c>
-      <c r="E36" s="42">
-        <v>2</v>
-      </c>
-      <c r="F36" s="43">
+      <c r="E36" s="44">
+        <v>2</v>
+      </c>
+      <c r="F36" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4570,16 +4567,16 @@
       <c r="B37" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="41" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="0">
         <v>1</v>
       </c>
-      <c r="E37" s="42">
-        <v>5</v>
-      </c>
-      <c r="F37" s="43">
+      <c r="E37" s="44">
+        <v>5</v>
+      </c>
+      <c r="F37" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4594,16 +4591,16 @@
       <c r="B38" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="0">
         <v>5</v>
       </c>
-      <c r="E38" s="42">
-        <v>1</v>
-      </c>
-      <c r="F38" s="43">
+      <c r="E38" s="44">
+        <v>1</v>
+      </c>
+      <c r="F38" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4618,16 +4615,16 @@
       <c r="B39" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="41" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="0">
         <v>1</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="44">
         <v>4</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4642,16 +4639,16 @@
       <c r="B40" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="41" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
-      <c r="E40" s="42">
-        <v>2</v>
-      </c>
-      <c r="F40" s="43">
+      <c r="E40" s="44">
+        <v>2</v>
+      </c>
+      <c r="F40" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -4666,16 +4663,16 @@
       <c r="B41" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="41" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="0">
         <v>5</v>
       </c>
-      <c r="E41" s="42">
-        <v>1</v>
-      </c>
-      <c r="F41" s="43">
+      <c r="E41" s="44">
+        <v>1</v>
+      </c>
+      <c r="F41" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4690,16 +4687,16 @@
       <c r="B42" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="41" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="0">
         <v>1</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="44">
         <v>11</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -4714,16 +4711,16 @@
       <c r="B43" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="41" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="0">
         <v>1</v>
       </c>
-      <c r="E43" s="42">
-        <v>5</v>
-      </c>
-      <c r="F43" s="43">
+      <c r="E43" s="44">
+        <v>5</v>
+      </c>
+      <c r="F43" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4738,16 +4735,16 @@
       <c r="B44" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="44">
         <v>10</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4762,16 +4759,16 @@
       <c r="B45" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="41" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="0">
         <v>5</v>
       </c>
-      <c r="E45" s="42">
-        <v>5</v>
-      </c>
-      <c r="F45" s="43">
+      <c r="E45" s="44">
+        <v>5</v>
+      </c>
+      <c r="F45" s="46">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4786,16 +4783,16 @@
       <c r="B46" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="0">
         <v>1</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="44">
         <v>39</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="46">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -4810,16 +4807,16 @@
       <c r="B47" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="41" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="0">
         <v>5</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="44">
         <v>9</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="46">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -4834,16 +4831,16 @@
       <c r="B48" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="41" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="0">
         <v>1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="44">
         <v>8</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -4858,16 +4855,16 @@
       <c r="B49" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="41" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="0">
         <v>5</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="44">
         <v>25</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="46">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -4882,16 +4879,16 @@
       <c r="B50" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="41" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="0">
         <v>1</v>
       </c>
-      <c r="E50" s="42">
-        <v>2</v>
-      </c>
-      <c r="F50" s="43">
+      <c r="E50" s="44">
+        <v>2</v>
+      </c>
+      <c r="F50" s="46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4906,16 +4903,16 @@
       <c r="B51" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="41" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="0">
         <v>5</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="44">
         <v>33</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="46">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
@@ -4930,16 +4927,16 @@
       <c r="B52" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="41" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="0">
         <v>5</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="44">
         <v>7</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="46">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -4954,16 +4951,16 @@
       <c r="B53" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D53" s="0">
         <v>1</v>
       </c>
-      <c r="E53" s="42">
-        <v>2</v>
-      </c>
-      <c r="F53" s="43">
+      <c r="E53" s="44">
+        <v>2</v>
+      </c>
+      <c r="F53" s="46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4978,16 +4975,16 @@
       <c r="B54" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="41" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="0">
         <v>1</v>
       </c>
-      <c r="E54" s="42">
-        <v>2</v>
-      </c>
-      <c r="F54" s="43">
+      <c r="E54" s="44">
+        <v>2</v>
+      </c>
+      <c r="F54" s="46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5002,16 +4999,16 @@
       <c r="B55" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="0">
         <v>5</v>
       </c>
-      <c r="E55" s="42">
-        <v>2</v>
-      </c>
-      <c r="F55" s="43">
+      <c r="E55" s="44">
+        <v>2</v>
+      </c>
+      <c r="F55" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5026,16 +5023,16 @@
       <c r="B56" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="41" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="0">
         <v>1</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="44">
         <v>7</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F56" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5047,14 +5044,14 @@
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="40">
         <v>3070</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="46"/>
+      <c r="E57" s="45"/>
       <c r="F57" s="47">
         <f>SUM(F30:F56)</f>
         <v>578</v>
